--- a/trunk/Báo cáo công việc hàng ngày/Hamasaki.vn@gmail.com/Dự kiến báo cáo công việc hàng ngày.xlsx
+++ b/trunk/Báo cáo công việc hàng ngày/Hamasaki.vn@gmail.com/Dự kiến báo cáo công việc hàng ngày.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -43,6 +43,78 @@
   </si>
   <si>
     <t>QUẢN LÝ</t>
+  </si>
+  <si>
+    <t>Mực độ hoàn thành của ngày</t>
+  </si>
+  <si>
+    <t>DỰ KIẾN BÁO CÁO CÔNG VIỆC HÀNG NGÀY</t>
+  </si>
+  <si>
+    <t>Quy định giờ làm :</t>
+  </si>
+  <si>
+    <t>a. Đến sớm</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>b. Đến đúng giờ</t>
+  </si>
+  <si>
+    <t>c. Đến muộn</t>
+  </si>
+  <si>
+    <t>Quy định tác phong công việc</t>
+  </si>
+  <si>
+    <t>a. Hoàn thành trước dateline</t>
+  </si>
+  <si>
+    <t>b. Hoàn thành đúng dateline</t>
+  </si>
+  <si>
+    <t>c. Muộn dateline</t>
+  </si>
+  <si>
+    <t>d. Quá muộn</t>
+  </si>
+  <si>
+    <t>Quy định về làm việc nhóm</t>
+  </si>
+  <si>
+    <t>a. Giúp đỡ nhưng người trong nhóm</t>
+  </si>
+  <si>
+    <t>b. Hoàn thành công việc nhóm giao cho</t>
+  </si>
+  <si>
+    <t>c. Lề mề ảnh hưởng công việc của nhóm</t>
+  </si>
+  <si>
+    <t>d. Không đóng góp gì cho nhóm</t>
+  </si>
+  <si>
+    <t>Tổng điểm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x 2</t>
+  </si>
+  <si>
+    <t>Điểm cuối cùng :</t>
+  </si>
+  <si>
+    <t>Nhận xét của người quản lý trực tiếp</t>
+  </si>
+  <si>
+    <t>Điểm quản lý cho</t>
+  </si>
+  <si>
+    <t>Nhận xét của Giám đốc</t>
+  </si>
+  <si>
+    <t>Tổng điểm tự cho :</t>
   </si>
   <si>
     <r>
@@ -52,7 +124,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Ngày :</t>
+      <t>Họ tên :</t>
     </r>
     <r>
       <rPr>
@@ -70,99 +142,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>14/4/2014</t>
-    </r>
-  </si>
-  <si>
-    <t>Mực độ hoàn thành của ngày</t>
-  </si>
-  <si>
-    <t>DỰ KIẾN BÁO CÁO CÔNG VIỆC HÀNG NGÀY</t>
-  </si>
-  <si>
-    <t>Quy định giờ làm :</t>
-  </si>
-  <si>
-    <t>a. Đến sớm</t>
-  </si>
-  <si>
-    <t>Điểm</t>
-  </si>
-  <si>
-    <t>b. Đến đúng giờ</t>
-  </si>
-  <si>
-    <t>c. Đến muộn</t>
-  </si>
-  <si>
-    <t>Quy định tác phong công việc</t>
-  </si>
-  <si>
-    <t>a. Hoàn thành trước dateline</t>
-  </si>
-  <si>
-    <t>b. Hoàn thành đúng dateline</t>
-  </si>
-  <si>
-    <t>c. Muộn dateline</t>
-  </si>
-  <si>
-    <t>d. Quá muộn</t>
-  </si>
-  <si>
-    <t>Quy định về làm việc nhóm</t>
-  </si>
-  <si>
-    <t>a. Giúp đỡ nhưng người trong nhóm</t>
-  </si>
-  <si>
-    <t>b. Hoàn thành công việc nhóm giao cho</t>
-  </si>
-  <si>
-    <t>c. Lề mề ảnh hưởng công việc của nhóm</t>
-  </si>
-  <si>
-    <t>d. Không đóng góp gì cho nhóm</t>
-  </si>
-  <si>
-    <t>Tổng điểm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> x 2</t>
-  </si>
-  <si>
-    <t>Điểm cuối cùng :</t>
-  </si>
-  <si>
-    <t>Nhận xét của người quản lý trực tiếp</t>
-  </si>
-  <si>
-    <t>Điểm quản lý cho</t>
-  </si>
-  <si>
-    <t>Nhận xét của Giám đốc</t>
-  </si>
-  <si>
-    <t>Tổng điểm tự cho :</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Họ tên :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Dương Đình Hiệp</t>
+      <t>Dương Đình Hiệp</t>
     </r>
   </si>
   <si>
@@ -182,20 +162,46 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> Xây dựng template website bookstore</t>
+      <t xml:space="preserve"> Sửa teplate website</t>
     </r>
   </si>
   <si>
-    <t>4 tiếng</t>
-  </si>
-  <si>
-    <t>bình thường</t>
-  </si>
-  <si>
-    <t>4 tiếng (14/4/2014)</t>
-  </si>
-  <si>
-    <t>Lên layout + test giao diện</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ngày :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/8/2014</t>
+    </r>
+  </si>
+  <si>
+    <t>Sửa lỗi các template phát sinh nếu có</t>
+  </si>
+  <si>
+    <t>Sửa tiếp phần authen backend của template</t>
+  </si>
+  <si>
+    <t>sáng- 8/8/2014</t>
   </si>
 </sst>
 </file>
@@ -865,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -883,7 +889,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27.75">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -896,7 +902,7 @@
     </row>
     <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -909,7 +915,7 @@
     </row>
     <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -922,7 +928,7 @@
     </row>
     <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -962,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>5</v>
@@ -982,27 +988,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1087,22 +1091,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14"/>
       <c r="F8" s="13"/>
@@ -1110,7 +1114,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="14"/>
       <c r="F9" s="13"/>
@@ -1118,7 +1122,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="14"/>
       <c r="F10" s="13"/>
@@ -1129,25 +1133,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
         <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1156,7 +1160,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1165,7 +1169,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1174,7 +1178,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1186,47 +1190,47 @@
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="B17" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:8">
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:8">
       <c r="B19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:8">
       <c r="H21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1234,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
         <v>30</v>
-      </c>
-      <c r="H25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1245,10 +1249,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
